--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Dcn-Tlr2.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Dcn-Tlr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Tlr2</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.6953103754707</v>
+        <v>26.57375066666667</v>
       </c>
       <c r="H2">
-        <v>19.6953103754707</v>
+        <v>79.72125199999999</v>
       </c>
       <c r="I2">
-        <v>0.01759618874290026</v>
+        <v>0.0234902361349606</v>
       </c>
       <c r="J2">
-        <v>0.01759618874290026</v>
+        <v>0.0234902361349606</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>3.17547212924119</v>
+        <v>2.249867</v>
       </c>
       <c r="N2">
-        <v>3.17547212924119</v>
+        <v>6.749601</v>
       </c>
       <c r="O2">
-        <v>0.02463946613427846</v>
+        <v>0.01621423513832461</v>
       </c>
       <c r="P2">
-        <v>0.02463946613427846</v>
+        <v>0.01621423513832461</v>
       </c>
       <c r="Q2">
-        <v>62.54190917406204</v>
+        <v>59.78740469116133</v>
       </c>
       <c r="R2">
-        <v>62.54190917406204</v>
+        <v>538.0866422204519</v>
       </c>
       <c r="S2">
-        <v>0.0004335606966230627</v>
+        <v>0.0003808762121470207</v>
       </c>
       <c r="T2">
-        <v>0.0004335606966230627</v>
+        <v>0.0003808762121470208</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.6953103754707</v>
+        <v>26.57375066666667</v>
       </c>
       <c r="H3">
-        <v>19.6953103754707</v>
+        <v>79.72125199999999</v>
       </c>
       <c r="I3">
-        <v>0.01759618874290026</v>
+        <v>0.0234902361349606</v>
       </c>
       <c r="J3">
-        <v>0.01759618874290026</v>
+        <v>0.0234902361349606</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>47.8690490316982</v>
+        <v>3.235963666666667</v>
       </c>
       <c r="N3">
-        <v>47.8690490316982</v>
+        <v>9.707891</v>
       </c>
       <c r="O3">
-        <v>0.3714306926631688</v>
+        <v>0.02332078998021146</v>
       </c>
       <c r="P3">
-        <v>0.3714306926631688</v>
+        <v>0.02332078998021146</v>
       </c>
       <c r="Q3">
-        <v>942.7957780579212</v>
+        <v>85.99169164439245</v>
       </c>
       <c r="R3">
-        <v>942.7957780579212</v>
+        <v>773.925224799532</v>
       </c>
       <c r="S3">
-        <v>0.006535764573007296</v>
+        <v>0.0005478108634889903</v>
       </c>
       <c r="T3">
-        <v>0.006535764573007296</v>
+        <v>0.0005478108634889904</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,185 +649,185 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.6953103754707</v>
+        <v>26.57375066666667</v>
       </c>
       <c r="H4">
-        <v>19.6953103754707</v>
+        <v>79.72125199999999</v>
       </c>
       <c r="I4">
-        <v>0.01759618874290026</v>
+        <v>0.0234902361349606</v>
       </c>
       <c r="J4">
-        <v>0.01759618874290026</v>
+        <v>0.0234902361349606</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>77.8329517492171</v>
+        <v>48.69315599999999</v>
       </c>
       <c r="N4">
-        <v>77.8329517492171</v>
+        <v>146.079468</v>
       </c>
       <c r="O4">
-        <v>0.6039298412025528</v>
+        <v>0.3509195348041114</v>
       </c>
       <c r="P4">
-        <v>0.6039298412025528</v>
+        <v>0.3509195348041115</v>
       </c>
       <c r="Q4">
-        <v>1532.944142139866</v>
+        <v>1293.959786717104</v>
       </c>
       <c r="R4">
-        <v>1532.944142139866</v>
+        <v>11645.63808045393</v>
       </c>
       <c r="S4">
-        <v>0.0106268634732699</v>
+        <v>0.008243182736919102</v>
       </c>
       <c r="T4">
-        <v>0.0106268634732699</v>
+        <v>0.008243182736919104</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1096.78030226615</v>
+        <v>26.57375066666667</v>
       </c>
       <c r="H5">
-        <v>1096.78030226615</v>
+        <v>79.72125199999999</v>
       </c>
       <c r="I5">
-        <v>0.9798857108749239</v>
+        <v>0.0234902361349606</v>
       </c>
       <c r="J5">
-        <v>0.9798857108749239</v>
+        <v>0.0234902361349606</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.17547212924119</v>
+        <v>84.46143499999999</v>
       </c>
       <c r="N5">
-        <v>3.17547212924119</v>
+        <v>253.384305</v>
       </c>
       <c r="O5">
-        <v>0.02463946613427846</v>
+        <v>0.6086926770383849</v>
       </c>
       <c r="P5">
-        <v>0.02463946613427846</v>
+        <v>0.608692677038385</v>
       </c>
       <c r="Q5">
-        <v>3482.795281746887</v>
+        <v>2244.457114638873</v>
       </c>
       <c r="R5">
-        <v>3482.795281746887</v>
+        <v>20200.11403174986</v>
       </c>
       <c r="S5">
-        <v>0.02414386078856606</v>
+        <v>0.01429833471725297</v>
       </c>
       <c r="T5">
-        <v>0.02414386078856606</v>
+        <v>0.01429833471725298</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1096.78030226615</v>
+        <v>26.57375066666667</v>
       </c>
       <c r="H6">
-        <v>1096.78030226615</v>
+        <v>79.72125199999999</v>
       </c>
       <c r="I6">
-        <v>0.9798857108749239</v>
+        <v>0.0234902361349606</v>
       </c>
       <c r="J6">
-        <v>0.9798857108749239</v>
+        <v>0.0234902361349606</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>47.8690490316982</v>
+        <v>0.1183283333333333</v>
       </c>
       <c r="N6">
-        <v>47.8690490316982</v>
+        <v>0.354985</v>
       </c>
       <c r="O6">
-        <v>0.3714306926631688</v>
+        <v>0.0008527630389675126</v>
       </c>
       <c r="P6">
-        <v>0.3714306926631688</v>
+        <v>0.0008527630389675127</v>
       </c>
       <c r="Q6">
-        <v>52501.83006617911</v>
+        <v>3.144427626802222</v>
       </c>
       <c r="R6">
-        <v>52501.83006617911</v>
+        <v>28.29984864122</v>
       </c>
       <c r="S6">
-        <v>0.3639596283210146</v>
+        <v>2.003160515251348E-05</v>
       </c>
       <c r="T6">
-        <v>0.3639596283210146</v>
+        <v>2.003160515251348E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,433 +835,1239 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1096.78030226615</v>
+        <v>1097.996215666667</v>
       </c>
       <c r="H7">
-        <v>1096.78030226615</v>
+        <v>3293.988647</v>
       </c>
       <c r="I7">
-        <v>0.9798857108749239</v>
+        <v>0.9705890111197625</v>
       </c>
       <c r="J7">
-        <v>0.9798857108749239</v>
+        <v>0.9705890111197626</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>77.8329517492171</v>
+        <v>2.249867</v>
       </c>
       <c r="N7">
-        <v>77.8329517492171</v>
+        <v>6.749601</v>
       </c>
       <c r="O7">
-        <v>0.6039298412025528</v>
+        <v>0.01621423513832461</v>
       </c>
       <c r="P7">
-        <v>0.6039298412025528</v>
+        <v>0.01621423513832461</v>
       </c>
       <c r="Q7">
-        <v>85365.64834577301</v>
+        <v>2470.345451753317</v>
       </c>
       <c r="R7">
-        <v>85365.64834577301</v>
+        <v>22233.10906577985</v>
       </c>
       <c r="S7">
-        <v>0.5917822217653433</v>
+        <v>0.01573735844896979</v>
       </c>
       <c r="T7">
-        <v>0.5917822217653433</v>
+        <v>0.01573735844896979</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.176676891320029</v>
+        <v>1097.996215666667</v>
       </c>
       <c r="H8">
-        <v>0.176676891320029</v>
+        <v>3293.988647</v>
       </c>
       <c r="I8">
-        <v>0.0001578467090342468</v>
+        <v>0.9705890111197625</v>
       </c>
       <c r="J8">
-        <v>0.0001578467090342468</v>
+        <v>0.9705890111197626</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.17547212924119</v>
+        <v>3.235963666666667</v>
       </c>
       <c r="N8">
-        <v>3.17547212924119</v>
+        <v>9.707891</v>
       </c>
       <c r="O8">
-        <v>0.02463946613427846</v>
+        <v>0.02332078998021146</v>
       </c>
       <c r="P8">
-        <v>0.02463946613427846</v>
+        <v>0.02332078998021146</v>
       </c>
       <c r="Q8">
-        <v>0.5610325442677268</v>
+        <v>3553.075860034831</v>
       </c>
       <c r="R8">
-        <v>0.5610325442677268</v>
+        <v>31977.68274031348</v>
       </c>
       <c r="S8">
-        <v>3.889258641656631E-06</v>
+        <v>0.0226349024854251</v>
       </c>
       <c r="T8">
-        <v>3.889258641656631E-06</v>
+        <v>0.02263490248542511</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.176676891320029</v>
+        <v>1097.996215666667</v>
       </c>
       <c r="H9">
-        <v>0.176676891320029</v>
+        <v>3293.988647</v>
       </c>
       <c r="I9">
-        <v>0.0001578467090342468</v>
+        <v>0.9705890111197625</v>
       </c>
       <c r="J9">
-        <v>0.0001578467090342468</v>
+        <v>0.9705890111197626</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>47.8690490316982</v>
+        <v>48.69315599999999</v>
       </c>
       <c r="N9">
-        <v>47.8690490316982</v>
+        <v>146.079468</v>
       </c>
       <c r="O9">
-        <v>0.3714306926631688</v>
+        <v>0.3509195348041114</v>
       </c>
       <c r="P9">
-        <v>0.3714306926631688</v>
+        <v>0.3509195348041115</v>
       </c>
       <c r="Q9">
-        <v>8.457354773366482</v>
+        <v>53464.90101686664</v>
       </c>
       <c r="R9">
-        <v>8.457354773366482</v>
+        <v>481184.1091517998</v>
       </c>
       <c r="S9">
-        <v>5.862911247119197E-05</v>
+        <v>0.3405986442681296</v>
       </c>
       <c r="T9">
-        <v>5.862911247119197E-05</v>
+        <v>0.3405986442681297</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.176676891320029</v>
+        <v>1097.996215666667</v>
       </c>
       <c r="H10">
-        <v>0.176676891320029</v>
+        <v>3293.988647</v>
       </c>
       <c r="I10">
-        <v>0.0001578467090342468</v>
+        <v>0.9705890111197625</v>
       </c>
       <c r="J10">
-        <v>0.0001578467090342468</v>
+        <v>0.9705890111197626</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>77.8329517492171</v>
+        <v>84.46143499999999</v>
       </c>
       <c r="N10">
-        <v>77.8329517492171</v>
+        <v>253.384305</v>
       </c>
       <c r="O10">
-        <v>0.6039298412025528</v>
+        <v>0.6086926770383849</v>
       </c>
       <c r="P10">
-        <v>0.6039298412025528</v>
+        <v>0.608692677038385</v>
       </c>
       <c r="Q10">
-        <v>13.75128395731349</v>
+        <v>92738.33599977616</v>
       </c>
       <c r="R10">
-        <v>13.75128395731349</v>
+        <v>834645.0239979853</v>
       </c>
       <c r="S10">
-        <v>9.532833792139825E-05</v>
+        <v>0.590790423482527</v>
       </c>
       <c r="T10">
-        <v>9.532833792139825E-05</v>
+        <v>0.5907904234825272</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.64181802869798</v>
+        <v>1097.996215666667</v>
       </c>
       <c r="H11">
-        <v>2.64181802869798</v>
+        <v>3293.988647</v>
       </c>
       <c r="I11">
-        <v>0.002360253673141487</v>
+        <v>0.9705890111197625</v>
       </c>
       <c r="J11">
-        <v>0.002360253673141487</v>
+        <v>0.9705890111197626</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>3.17547212924119</v>
+        <v>0.1183283333333333</v>
       </c>
       <c r="N11">
-        <v>3.17547212924119</v>
+        <v>0.354985</v>
       </c>
       <c r="O11">
-        <v>0.02463946613427846</v>
+        <v>0.0008527630389675126</v>
       </c>
       <c r="P11">
-        <v>0.02463946613427846</v>
+        <v>0.0008527630389675127</v>
       </c>
       <c r="Q11">
-        <v>8.389019520657339</v>
+        <v>129.9240622061439</v>
       </c>
       <c r="R11">
-        <v>8.389019520657339</v>
+        <v>1169.316559855295</v>
       </c>
       <c r="S11">
-        <v>5.815539044767599E-05</v>
+        <v>0.0008276824347109615</v>
       </c>
       <c r="T11">
-        <v>5.815539044767599E-05</v>
+        <v>0.0008276824347109617</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>2.64181802869798</v>
+        <v>0.1943503333333333</v>
       </c>
       <c r="H12">
-        <v>2.64181802869798</v>
+        <v>0.583051</v>
       </c>
       <c r="I12">
-        <v>0.002360253673141487</v>
+        <v>0.0001717986775812918</v>
       </c>
       <c r="J12">
-        <v>0.002360253673141487</v>
+        <v>0.0001717986775812918</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>47.8690490316982</v>
+        <v>2.249867</v>
       </c>
       <c r="N12">
-        <v>47.8690490316982</v>
+        <v>6.749601</v>
       </c>
       <c r="O12">
-        <v>0.3714306926631688</v>
+        <v>0.01621423513832461</v>
       </c>
       <c r="P12">
-        <v>0.3714306926631688</v>
+        <v>0.01621423513832461</v>
       </c>
       <c r="Q12">
-        <v>126.4613167485679</v>
+        <v>0.4372624014056666</v>
       </c>
       <c r="R12">
-        <v>126.4613167485679</v>
+        <v>3.935361612651</v>
       </c>
       <c r="S12">
-        <v>0.0008766706566757308</v>
+        <v>2.785584154756282E-06</v>
       </c>
       <c r="T12">
-        <v>0.0008766706566757308</v>
+        <v>2.785584154756283E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.1943503333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.583051</v>
+      </c>
+      <c r="I13">
+        <v>0.0001717986775812918</v>
+      </c>
+      <c r="J13">
+        <v>0.0001717986775812918</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>3.235963666666667</v>
+      </c>
+      <c r="N13">
+        <v>9.707891</v>
+      </c>
+      <c r="O13">
+        <v>0.02332078998021146</v>
+      </c>
+      <c r="P13">
+        <v>0.02332078998021146</v>
+      </c>
+      <c r="Q13">
+        <v>0.6289106172712222</v>
+      </c>
+      <c r="R13">
+        <v>5.660195555441</v>
+      </c>
+      <c r="S13">
+        <v>4.006480878751368E-06</v>
+      </c>
+      <c r="T13">
+        <v>4.00648087875137E-06</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.1943503333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.583051</v>
+      </c>
+      <c r="I14">
+        <v>0.0001717986775812918</v>
+      </c>
+      <c r="J14">
+        <v>0.0001717986775812918</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>48.69315599999999</v>
+      </c>
+      <c r="N14">
+        <v>146.079468</v>
+      </c>
+      <c r="O14">
+        <v>0.3509195348041114</v>
+      </c>
+      <c r="P14">
+        <v>0.3509195348041115</v>
+      </c>
+      <c r="Q14">
+        <v>9.463531099651998</v>
+      </c>
+      <c r="R14">
+        <v>85.17177989686799</v>
+      </c>
+      <c r="S14">
+        <v>6.028751201678843E-05</v>
+      </c>
+      <c r="T14">
+        <v>6.028751201678847E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.1943503333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.583051</v>
+      </c>
+      <c r="I15">
+        <v>0.0001717986775812918</v>
+      </c>
+      <c r="J15">
+        <v>0.0001717986775812918</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>84.46143499999999</v>
+      </c>
+      <c r="N15">
+        <v>253.384305</v>
+      </c>
+      <c r="O15">
+        <v>0.6086926770383849</v>
+      </c>
+      <c r="P15">
+        <v>0.608692677038385</v>
+      </c>
+      <c r="Q15">
+        <v>16.41510804606166</v>
+      </c>
+      <c r="R15">
+        <v>147.735972414555</v>
+      </c>
+      <c r="S15">
+        <v>0.0001045725969686109</v>
+      </c>
+      <c r="T15">
+        <v>0.0001045725969686109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.1943503333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.583051</v>
+      </c>
+      <c r="I16">
+        <v>0.0001717986775812918</v>
+      </c>
+      <c r="J16">
+        <v>0.0001717986775812918</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.1183283333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.354985</v>
+      </c>
+      <c r="O16">
+        <v>0.0008527630389675126</v>
+      </c>
+      <c r="P16">
+        <v>0.0008527630389675127</v>
+      </c>
+      <c r="Q16">
+        <v>0.02299715102611111</v>
+      </c>
+      <c r="R16">
+        <v>0.206974359235</v>
+      </c>
+      <c r="S16">
+        <v>1.465035623848222E-07</v>
+      </c>
+      <c r="T16">
+        <v>1.465035623848223E-07</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.4090393333333334</v>
+      </c>
+      <c r="H17">
+        <v>1.227118</v>
+      </c>
+      <c r="I17">
+        <v>0.0003615760021613883</v>
+      </c>
+      <c r="J17">
+        <v>0.0003615760021613884</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>2.249867</v>
+      </c>
+      <c r="N17">
+        <v>6.749601</v>
+      </c>
+      <c r="O17">
+        <v>0.01621423513832461</v>
+      </c>
+      <c r="P17">
+        <v>0.01621423513832461</v>
+      </c>
+      <c r="Q17">
+        <v>0.9202840977686668</v>
+      </c>
+      <c r="R17">
+        <v>8.282556879918001</v>
+      </c>
+      <c r="S17">
+        <v>5.862678319420119E-06</v>
+      </c>
+      <c r="T17">
+        <v>5.86267831942012E-06</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.4090393333333334</v>
+      </c>
+      <c r="H18">
+        <v>1.227118</v>
+      </c>
+      <c r="I18">
+        <v>0.0003615760021613883</v>
+      </c>
+      <c r="J18">
+        <v>0.0003615760021613884</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>3.235963666666667</v>
+      </c>
+      <c r="N18">
+        <v>9.707891</v>
+      </c>
+      <c r="O18">
+        <v>0.02332078998021146</v>
+      </c>
+      <c r="P18">
+        <v>0.02332078998021146</v>
+      </c>
+      <c r="Q18">
+        <v>1.323636420904222</v>
+      </c>
+      <c r="R18">
+        <v>11.912727788138</v>
+      </c>
+      <c r="S18">
+        <v>8.432238008290221E-06</v>
+      </c>
+      <c r="T18">
+        <v>8.432238008290226E-06</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>2.64181802869798</v>
-      </c>
-      <c r="H13">
-        <v>2.64181802869798</v>
-      </c>
-      <c r="I13">
-        <v>0.002360253673141487</v>
-      </c>
-      <c r="J13">
-        <v>0.002360253673141487</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>77.8329517492171</v>
-      </c>
-      <c r="N13">
-        <v>77.8329517492171</v>
-      </c>
-      <c r="O13">
-        <v>0.6039298412025528</v>
-      </c>
-      <c r="P13">
-        <v>0.6039298412025528</v>
-      </c>
-      <c r="Q13">
-        <v>205.6204951578617</v>
-      </c>
-      <c r="R13">
-        <v>205.6204951578617</v>
-      </c>
-      <c r="S13">
-        <v>0.00142542762601808</v>
-      </c>
-      <c r="T13">
-        <v>0.00142542762601808</v>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.4090393333333334</v>
+      </c>
+      <c r="H19">
+        <v>1.227118</v>
+      </c>
+      <c r="I19">
+        <v>0.0003615760021613883</v>
+      </c>
+      <c r="J19">
+        <v>0.0003615760021613884</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>48.69315599999999</v>
+      </c>
+      <c r="N19">
+        <v>146.079468</v>
+      </c>
+      <c r="O19">
+        <v>0.3509195348041114</v>
+      </c>
+      <c r="P19">
+        <v>0.3509195348041115</v>
+      </c>
+      <c r="Q19">
+        <v>19.917416068136</v>
+      </c>
+      <c r="R19">
+        <v>179.256744613224</v>
+      </c>
+      <c r="S19">
+        <v>0.0001268840824748048</v>
+      </c>
+      <c r="T19">
+        <v>0.0001268840824748048</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.4090393333333334</v>
+      </c>
+      <c r="H20">
+        <v>1.227118</v>
+      </c>
+      <c r="I20">
+        <v>0.0003615760021613883</v>
+      </c>
+      <c r="J20">
+        <v>0.0003615760021613884</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>84.46143499999999</v>
+      </c>
+      <c r="N20">
+        <v>253.384305</v>
+      </c>
+      <c r="O20">
+        <v>0.6086926770383849</v>
+      </c>
+      <c r="P20">
+        <v>0.608692677038385</v>
+      </c>
+      <c r="Q20">
+        <v>34.54804906477667</v>
+      </c>
+      <c r="R20">
+        <v>310.93244158299</v>
+      </c>
+      <c r="S20">
+        <v>0.0002200886647084523</v>
+      </c>
+      <c r="T20">
+        <v>0.0002200886647084524</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.4090393333333334</v>
+      </c>
+      <c r="H21">
+        <v>1.227118</v>
+      </c>
+      <c r="I21">
+        <v>0.0003615760021613883</v>
+      </c>
+      <c r="J21">
+        <v>0.0003615760021613884</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.1183283333333333</v>
+      </c>
+      <c r="N21">
+        <v>0.354985</v>
+      </c>
+      <c r="O21">
+        <v>0.0008527630389675126</v>
+      </c>
+      <c r="P21">
+        <v>0.0008527630389675127</v>
+      </c>
+      <c r="Q21">
+        <v>0.04840094258111111</v>
+      </c>
+      <c r="R21">
+        <v>0.4356084832300001</v>
+      </c>
+      <c r="S21">
+        <v>3.083386504208694E-07</v>
+      </c>
+      <c r="T21">
+        <v>3.083386504208695E-07</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>6.094568</v>
+      </c>
+      <c r="H22">
+        <v>18.283704</v>
+      </c>
+      <c r="I22">
+        <v>0.005387378065534189</v>
+      </c>
+      <c r="J22">
+        <v>0.005387378065534191</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>2.249867</v>
+      </c>
+      <c r="N22">
+        <v>6.749601</v>
+      </c>
+      <c r="O22">
+        <v>0.01621423513832461</v>
+      </c>
+      <c r="P22">
+        <v>0.01621423513832461</v>
+      </c>
+      <c r="Q22">
+        <v>13.711967422456</v>
+      </c>
+      <c r="R22">
+        <v>123.407706802104</v>
+      </c>
+      <c r="S22">
+        <v>8.735221473362373E-05</v>
+      </c>
+      <c r="T22">
+        <v>8.735221473362376E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>6.094568</v>
+      </c>
+      <c r="H23">
+        <v>18.283704</v>
+      </c>
+      <c r="I23">
+        <v>0.005387378065534189</v>
+      </c>
+      <c r="J23">
+        <v>0.005387378065534191</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>3.235963666666667</v>
+      </c>
+      <c r="N23">
+        <v>9.707891</v>
+      </c>
+      <c r="O23">
+        <v>0.02332078998021146</v>
+      </c>
+      <c r="P23">
+        <v>0.02332078998021146</v>
+      </c>
+      <c r="Q23">
+        <v>19.72180061202933</v>
+      </c>
+      <c r="R23">
+        <v>177.496205508264</v>
+      </c>
+      <c r="S23">
+        <v>0.0001256379124103207</v>
+      </c>
+      <c r="T23">
+        <v>0.0001256379124103208</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>6.094568</v>
+      </c>
+      <c r="H24">
+        <v>18.283704</v>
+      </c>
+      <c r="I24">
+        <v>0.005387378065534189</v>
+      </c>
+      <c r="J24">
+        <v>0.005387378065534191</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>48.69315599999999</v>
+      </c>
+      <c r="N24">
+        <v>146.079468</v>
+      </c>
+      <c r="O24">
+        <v>0.3509195348041114</v>
+      </c>
+      <c r="P24">
+        <v>0.3509195348041115</v>
+      </c>
+      <c r="Q24">
+        <v>296.763750376608</v>
+      </c>
+      <c r="R24">
+        <v>2670.873753389472</v>
+      </c>
+      <c r="S24">
+        <v>0.001890536204571131</v>
+      </c>
+      <c r="T24">
+        <v>0.001890536204571132</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>6.094568</v>
+      </c>
+      <c r="H25">
+        <v>18.283704</v>
+      </c>
+      <c r="I25">
+        <v>0.005387378065534189</v>
+      </c>
+      <c r="J25">
+        <v>0.005387378065534191</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>84.46143499999999</v>
+      </c>
+      <c r="N25">
+        <v>253.384305</v>
+      </c>
+      <c r="O25">
+        <v>0.6086926770383849</v>
+      </c>
+      <c r="P25">
+        <v>0.608692677038385</v>
+      </c>
+      <c r="Q25">
+        <v>514.7559589850799</v>
+      </c>
+      <c r="R25">
+        <v>4632.80363086572</v>
+      </c>
+      <c r="S25">
+        <v>0.003279257576927881</v>
+      </c>
+      <c r="T25">
+        <v>0.003279257576927883</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>6.094568</v>
+      </c>
+      <c r="H26">
+        <v>18.283704</v>
+      </c>
+      <c r="I26">
+        <v>0.005387378065534189</v>
+      </c>
+      <c r="J26">
+        <v>0.005387378065534191</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M26">
+        <v>0.1183283333333333</v>
+      </c>
+      <c r="N26">
+        <v>0.354985</v>
+      </c>
+      <c r="O26">
+        <v>0.0008527630389675126</v>
+      </c>
+      <c r="P26">
+        <v>0.0008527630389675127</v>
+      </c>
+      <c r="Q26">
+        <v>0.7211600738266666</v>
+      </c>
+      <c r="R26">
+        <v>6.49044066444</v>
+      </c>
+      <c r="S26">
+        <v>4.594156891231855E-06</v>
+      </c>
+      <c r="T26">
+        <v>4.594156891231856E-06</v>
       </c>
     </row>
   </sheetData>
